--- a/data/msrtc/data/data/latlong/beed.xlsx
+++ b/data/msrtc/data/data/latlong/beed.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\NewYug\raloa1\data\msrtc\data\data\latlong\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -14,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$D$1067</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -12945,7 +12950,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -12980,7 +12985,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -46308,10 +46313,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J19"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -46328,34 +46333,66 @@
     <col min="11" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" s="11" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+    <row r="1" spans="1:10" s="11" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>2508</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B1" s="7" t="s">
         <v>2509</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>2510</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>2511</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>2512</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>2513</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>2934</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8" t="s">
+      <c r="H1" s="8"/>
+      <c r="I1" s="8" t="s">
         <v>3997</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>3998</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>2595</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>1293</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>1294</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>4001</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>3315</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>3315</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>4018</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -46366,28 +46403,28 @@
         <v>1138</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>2595</v>
+        <v>2598</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>1293</v>
+        <v>1152</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>1294</v>
+        <v>1153</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>4001</v>
+        <v>4002</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>3315</v>
+        <v>3320</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>3315</v>
+        <v>3320</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>4018</v>
+        <v>4019</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -46398,28 +46435,28 @@
         <v>1138</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>1152</v>
+        <v>1163</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>1153</v>
+        <v>1164</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>4002</v>
+        <v>4003</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>3320</v>
+        <v>3318</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>3320</v>
+        <v>3318</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>4019</v>
+        <v>4020</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -46430,28 +46467,28 @@
         <v>1138</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>2596</v>
+        <v>2592</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>4003</v>
+        <v>4004</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>3318</v>
+        <v>3312</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>3318</v>
+        <v>3312</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>4020</v>
+        <v>4021</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -46462,28 +46499,28 @@
         <v>1138</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>2592</v>
+        <v>2594</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>1159</v>
+        <v>1179</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>1160</v>
+        <v>1180</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>4004</v>
+        <v>4005</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>3312</v>
+        <v>3313</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>3312</v>
+        <v>3313</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>4021</v>
+        <v>4022</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -46494,28 +46531,28 @@
         <v>1138</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>2594</v>
+        <v>1187</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>1179</v>
+        <v>1188</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>1180</v>
+        <v>1189</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>4005</v>
+        <v>4006</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>3313</v>
+        <v>3325</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>3313</v>
+        <v>3325</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>4022</v>
+        <v>4023</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -46526,28 +46563,28 @@
         <v>1138</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>1187</v>
+        <v>1290</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>1188</v>
+        <v>1291</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>1189</v>
+        <v>1292</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>4006</v>
+        <v>4007</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>3325</v>
+        <v>3323</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>3325</v>
+        <v>3323</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>4023</v>
+        <v>4024</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -46558,28 +46595,28 @@
         <v>1138</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>1290</v>
+        <v>1156</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>1291</v>
+        <v>1157</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>1292</v>
+        <v>1158</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>4007</v>
+        <v>4008</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>3323</v>
+        <v>3316</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>3323</v>
+        <v>3316</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>4024</v>
+        <v>4025</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -46590,28 +46627,28 @@
         <v>1138</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>1156</v>
+        <v>2599</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>1157</v>
+        <v>1286</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>1158</v>
+        <v>1287</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>4008</v>
+        <v>4009</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>3316</v>
+        <v>3321</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>3316</v>
+        <v>3321</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>4025</v>
+        <v>4026</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -46622,28 +46659,28 @@
         <v>1138</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>2599</v>
+        <v>1165</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>1286</v>
+        <v>1168</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>1287</v>
+        <v>1169</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>4009</v>
+        <v>4010</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>3321</v>
+        <v>3324</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>3321</v>
+        <v>3324</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>4026</v>
+        <v>4027</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -46654,28 +46691,28 @@
         <v>1138</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>1165</v>
+        <v>2597</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>1168</v>
+        <v>1177</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>1169</v>
+        <v>1178</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>4010</v>
+        <v>4011</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>3324</v>
+        <v>3319</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>3324</v>
+        <v>3319</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>4027</v>
+        <v>4028</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -46686,28 +46723,28 @@
         <v>1138</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>2597</v>
+        <v>2602</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>1177</v>
+        <v>1139</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>1178</v>
+        <v>1140</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>4011</v>
+        <v>4012</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>3319</v>
+        <v>3328</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>3319</v>
+        <v>3328</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>4028</v>
+        <v>4029</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -46718,28 +46755,28 @@
         <v>1138</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>2602</v>
+        <v>1138</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>1139</v>
+        <v>1272</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>1140</v>
+        <v>1273</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>4012</v>
+        <v>4013</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>3328</v>
+        <v>3314</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>3328</v>
+        <v>3314</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>4029</v>
+        <v>4030</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -46750,28 +46787,28 @@
         <v>1138</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>1138</v>
+        <v>2601</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>1272</v>
+        <v>1172</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>1273</v>
+        <v>1173</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>4013</v>
+        <v>4014</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>3314</v>
+        <v>3326</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>3314</v>
+        <v>3326</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>4030</v>
+        <v>4031</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -46782,28 +46819,28 @@
         <v>1138</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>1172</v>
+        <v>1144</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>1173</v>
+        <v>1145</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>4014</v>
+        <v>4015</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>3326</v>
+        <v>3322</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>3326</v>
+        <v>3322</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>4031</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -46814,28 +46851,28 @@
         <v>1138</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>2600</v>
+        <v>1281</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>1144</v>
+        <v>1282</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>1145</v>
+        <v>1283</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>4015</v>
+        <v>4016</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>3322</v>
+        <v>3317</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>3322</v>
+        <v>3317</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>4032</v>
+        <v>4033</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -46846,59 +46883,27 @@
         <v>1138</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>4016</v>
+        <v>4017</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>3317</v>
+        <v>3327</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>3317</v>
+        <v>3327</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>4033</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>1278</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>1279</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>4017</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>3327</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>3327</v>
-      </c>
-      <c r="J19" s="13" t="s">
         <v>4034</v>
       </c>
     </row>

--- a/data/msrtc/data/data/latlong/beed.xlsx
+++ b/data/msrtc/data/data/latlong/beed.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$D$1067</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$B$1:$D$1067</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -13194,12 +13194,617 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="10" customWidth="1"/>
+    <col min="3" max="4" width="13.28515625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="11" style="10" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="23.7109375" style="10" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" style="10" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" s="11" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>2508</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>2509</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>2510</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>2511</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>2512</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>2513</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>2934</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8" t="s">
+        <v>3997</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>3998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>2595</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>1293</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>1294</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>4001</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>3315</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>3315</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>4018</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>2598</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>1153</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>4002</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>3320</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>3320</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>4019</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>2596</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>1164</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>4003</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>3318</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>3318</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>4020</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>2592</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>4004</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>3312</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>3312</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>4021</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>2594</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>4005</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>3313</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>3313</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>4022</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>1189</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>4006</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>3325</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>3325</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>4023</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>1291</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>1292</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>4007</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>3323</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>3323</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>4024</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>1158</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>4008</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>3316</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>3316</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>4025</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>2599</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>1286</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>1287</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>4009</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>3321</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>3321</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>4026</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>1169</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>4010</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>3324</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>3324</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>4027</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>2597</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>4011</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>3319</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>3319</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>4028</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>2602</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>1139</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>4012</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>3328</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>3328</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>4029</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>1272</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>1273</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>4013</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>3314</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>3314</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>4030</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>2601</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>1173</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>4014</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>3326</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>3326</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>4031</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>2600</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>1145</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>4015</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>3322</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>3322</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>4032</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>1283</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>4016</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>3317</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>3317</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>4033</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>1279</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>4017</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>3327</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>3327</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>4034</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:J620">
+    <sortCondition ref="B2:B620"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J1067"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A954" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <pane ySplit="1" topLeftCell="A968" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G968" sqref="G968"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -46309,609 +46914,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14.7109375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="10" customWidth="1"/>
-    <col min="3" max="4" width="13.28515625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="11" style="10" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="23.7109375" style="10" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" style="10" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="11" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>2508</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>2509</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2510</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>2511</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>2512</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>2513</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>2934</v>
-      </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8" t="s">
-        <v>3997</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>3998</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>2595</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>1293</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>1294</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>4001</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>3315</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>3315</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>4018</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>2598</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>1152</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>1153</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>4002</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>3320</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>3320</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>4019</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>2596</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>1163</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>1164</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>4003</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>3318</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>3318</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>4020</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>2592</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>1159</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>1160</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>4004</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>3312</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>3312</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>4021</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>2594</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>1179</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>1180</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>4005</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>3313</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>3313</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>4022</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>1187</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>1188</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>1189</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>4006</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>3325</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>3325</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>4023</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>1290</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>1291</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>1292</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>4007</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>3323</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>3323</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>4024</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>1156</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>1157</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>1158</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>4008</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>3316</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>3316</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>4025</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>2599</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>1286</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>1287</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>4009</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>3321</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>3321</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>4026</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>1165</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>1168</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>1169</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>4010</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>3324</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>3324</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>4027</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>2597</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>1177</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>1178</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>4011</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>3319</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>3319</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>4028</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>2602</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>1139</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>4012</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>3328</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>3328</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>4029</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>1138</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>1272</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>1273</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>4013</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>3314</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>3314</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>4030</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>2601</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>1172</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>1173</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>4014</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>3326</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>3326</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>4031</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>2600</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>1144</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>1145</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>4015</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>3322</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>3322</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>4032</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>1281</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>1282</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>1283</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>4016</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>3317</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>3317</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>4033</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>1278</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>1279</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>4017</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>3327</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>3327</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>4034</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A2:J620">
-    <sortCondition ref="B2:B620"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>